--- a/data/trans_orig/P57GLOBAL_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57GLOBAL_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F641391-1577-4757-96B7-E4D4E62D7CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{618C3F7E-5E7A-44DF-A239-C9FC326D1E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{687F48FF-6276-422C-B8CD-3C2088FEBE82}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{62B6094F-1AA3-4D84-9565-2A47DA75010E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="419">
   <si>
-    <t>Población con apoyo social funcional bajo, por encima del percentil 15 en 2007 (Tasa respuesta: 99,88%)</t>
+    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2007 (Tasa respuesta: 99,88%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,28 +77,28 @@
     <t>8,41%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
   </si>
   <si>
     <t>18,34%</t>
   </si>
   <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
   </si>
   <si>
     <t>13,32%</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
   </si>
   <si>
     <t>Apoyo normal</t>
@@ -107,28 +107,28 @@
     <t>91,59%</t>
   </si>
   <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
   </si>
   <si>
     <t>81,66%</t>
   </si>
   <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
   </si>
   <si>
     <t>86,68%</t>
   </si>
   <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1162 +140,1162 @@
     <t>16,35%</t>
   </si>
   <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
   </si>
   <si>
     <t>23,17%</t>
   </si>
   <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
   </si>
   <si>
     <t>19,75%</t>
   </si>
   <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2012 (Tasa respuesta: 98,91%)</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2015 (Tasa respuesta: 99,15%)</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
     <t>17,4%</t>
   </si>
   <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
   </si>
   <si>
     <t>82,6%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
   </si>
   <si>
     <t>15,72%</t>
   </si>
   <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
   </si>
   <si>
     <t>84,28%</t>
   </si>
   <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con apoyo social funcional bajo, por encima del percentil 15 en 2012 (Tasa respuesta: 98,91%)</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2023 (Tasa respuesta: 98,07%)</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
   </si>
   <si>
     <t>14,75%</t>
   </si>
   <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
   </si>
   <si>
     <t>85,25%</t>
   </si>
   <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>Población con apoyo social funcional bajo, por encima del percentil 15 en 2015 (Tasa respuesta: 99,15%)</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
   </si>
   <si>
     <t>17,05%</t>
   </si>
   <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
   </si>
   <si>
     <t>82,95%</t>
   </si>
   <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>Población con apoyo social funcional bajo, por encima del percentil 15 en 2023 (Tasa respuesta: 98,07%)</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
   </si>
   <si>
     <t>13,84%</t>
   </si>
   <si>
-    <t>11,65%</t>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
   </si>
   <si>
     <t>13,34%</t>
   </si>
   <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
   </si>
   <si>
     <t>13,57%</t>
   </si>
   <si>
-    <t>12,15%</t>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
   </si>
   <si>
     <t>86,16%</t>
   </si>
   <si>
-    <t>88,35%</t>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
   </si>
   <si>
     <t>86,66%</t>
   </si>
   <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
   </si>
   <si>
     <t>86,43%</t>
   </si>
   <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
   </si>
   <si>
     <t>14,45%</t>
   </si>
   <si>
-    <t>15,51%</t>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
   </si>
   <si>
     <t>13,78%</t>
   </si>
   <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
   </si>
   <si>
     <t>85,55%</t>
   </si>
   <si>
-    <t>84,49%</t>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
   </si>
   <si>
     <t>86,22%</t>
   </si>
   <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
   </si>
 </sst>
 </file>
@@ -1707,7 +1707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524F3D39-9298-4578-AD08-4EB52334650F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B651DED0-8387-45CA-BD84-B8A2481C5E11}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2472,7 +2472,7 @@
         <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="M16" s="7">
         <v>331</v>
@@ -2481,13 +2481,13 @@
         <v>338147</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,13 +2502,13 @@
         <v>801318</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>810</v>
@@ -2517,13 +2517,13 @@
         <v>837157</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1656</v>
@@ -2532,13 +2532,13 @@
         <v>1638475</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,13 +2606,13 @@
         <v>471934</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>607</v>
@@ -2621,13 +2621,13 @@
         <v>641005</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>1070</v>
@@ -2636,13 +2636,13 @@
         <v>1112939</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,13 +2657,13 @@
         <v>2798542</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>2687</v>
@@ -2672,13 +2672,13 @@
         <v>2735067</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>5433</v>
@@ -2687,10 +2687,10 @@
         <v>5533609</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>122</v>
@@ -2770,7 +2770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D384B9-B889-4870-A539-A40B6DDA18DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E884037-126F-43C4-B6AD-514F5DE36728}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3085,7 +3085,7 @@
         <v>150</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,13 +3100,13 @@
         <v>522185</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>478</v>
@@ -3115,28 +3115,28 @@
         <v>504174</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>966</v>
       </c>
       <c r="N8" s="7">
-        <v>1026359</v>
+        <v>1026358</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3178,7 +3178,7 @@
         <v>1094</v>
       </c>
       <c r="N9" s="7">
-        <v>1162083</v>
+        <v>1162082</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3204,13 +3204,13 @@
         <v>179658</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>158</v>
@@ -3219,13 +3219,13 @@
         <v>176280</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>320</v>
@@ -3234,13 +3234,13 @@
         <v>355938</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,13 +3255,13 @@
         <v>827594</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H11" s="7">
         <v>774</v>
@@ -3270,13 +3270,13 @@
         <v>847617</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M11" s="7">
         <v>1538</v>
@@ -3285,13 +3285,13 @@
         <v>1675211</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,13 +3359,13 @@
         <v>137202</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>135</v>
@@ -3377,10 +3377,10 @@
         <v>125</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>255</v>
@@ -3389,13 +3389,13 @@
         <v>289401</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,13 +3410,13 @@
         <v>609285</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H14" s="7">
         <v>566</v>
@@ -3428,10 +3428,10 @@
         <v>134</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>120</v>
       </c>
       <c r="M14" s="7">
         <v>1124</v>
@@ -3690,7 +3690,7 @@
         <v>215</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>216</v>
+        <v>96</v>
       </c>
       <c r="M19" s="7">
         <v>1071</v>
@@ -3699,7 +3699,7 @@
         <v>1170015</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>217</v>
@@ -3738,10 +3738,10 @@
         <v>222</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M20" s="7">
         <v>5365</v>
@@ -3750,7 +3750,7 @@
         <v>5739240</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>225</v>
@@ -3833,7 +3833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E9F7CBD-6062-48E5-90DF-5F7091D9A49F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377B9328-41F5-499A-9D06-C051F6BD180B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3957,13 +3957,13 @@
         <v>20315</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -3972,13 +3972,13 @@
         <v>26517</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>45</v>
@@ -3987,13 +3987,13 @@
         <v>46832</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,13 +4008,13 @@
         <v>95173</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>88</v>
@@ -4023,13 +4023,13 @@
         <v>85875</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>181</v>
@@ -4038,13 +4038,13 @@
         <v>181047</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4115,10 +4115,10 @@
         <v>73</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>96</v>
+        <v>244</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H7" s="7">
         <v>116</v>
@@ -4127,13 +4127,13 @@
         <v>120373</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M7" s="7">
         <v>216</v>
@@ -4142,13 +4142,13 @@
         <v>223679</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,10 +4166,10 @@
         <v>82</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H8" s="7">
         <v>431</v>
@@ -4303,7 +4303,7 @@
         <v>267</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>268</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,13 +4318,13 @@
         <v>877247</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H11" s="7">
         <v>836</v>
@@ -4333,28 +4333,28 @@
         <v>886841</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M11" s="7">
         <v>1650</v>
       </c>
       <c r="N11" s="7">
-        <v>1764087</v>
+        <v>1764088</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,7 +4396,7 @@
         <v>1915</v>
       </c>
       <c r="N12" s="7">
-        <v>2051058</v>
+        <v>2051059</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4422,13 +4422,13 @@
         <v>134972</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>132</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H13" s="7">
         <v>141</v>
@@ -4437,13 +4437,13 @@
         <v>155675</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M13" s="7">
         <v>262</v>
@@ -4452,13 +4452,13 @@
         <v>290648</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>56</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,13 +4473,13 @@
         <v>614638</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>142</v>
       </c>
       <c r="H14" s="7">
         <v>584</v>
@@ -4488,13 +4488,13 @@
         <v>616583</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M14" s="7">
         <v>1150</v>
@@ -4503,13 +4503,13 @@
         <v>1231220</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>64</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,13 +4577,13 @@
         <v>155966</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="H16" s="7">
         <v>165</v>
@@ -4592,13 +4592,13 @@
         <v>186142</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="M16" s="7">
         <v>321</v>
@@ -4610,10 +4610,10 @@
         <v>199</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,13 +4628,13 @@
         <v>774459</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H17" s="7">
         <v>785</v>
@@ -4643,13 +4643,13 @@
         <v>847496</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="M17" s="7">
         <v>1555</v>
@@ -4661,10 +4661,10 @@
         <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,13 +4732,13 @@
         <v>553561</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>59</v>
+        <v>306</v>
       </c>
       <c r="H19" s="7">
         <v>581</v>
@@ -4747,13 +4747,13 @@
         <v>636678</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>248</v>
+        <v>307</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M19" s="7">
         <v>1109</v>
@@ -4762,13 +4762,13 @@
         <v>1190238</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>314</v>
+        <v>197</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,13 +4783,13 @@
         <v>2814431</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>67</v>
+        <v>313</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>85</v>
+        <v>314</v>
       </c>
       <c r="H20" s="7">
         <v>2724</v>
@@ -4798,13 +4798,13 @@
         <v>2872086</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>256</v>
+        <v>315</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="M20" s="7">
         <v>5404</v>
@@ -4813,13 +4813,13 @@
         <v>5686518</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>320</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>321</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4896,7 +4896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C16762-C7B6-4CAF-8943-5A655930972B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620E1125-94BF-479F-9F19-1E61A5977839}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4913,7 +4913,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5020,13 +5020,13 @@
         <v>20233</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="H4" s="7">
         <v>39</v>
@@ -5035,13 +5035,13 @@
         <v>17543</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M4" s="7">
         <v>65</v>
@@ -5050,13 +5050,13 @@
         <v>37775</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>329</v>
+        <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,13 +5071,13 @@
         <v>79746</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H5" s="7">
         <v>194</v>
@@ -5086,13 +5086,13 @@
         <v>107228</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="M5" s="7">
         <v>285</v>
@@ -5101,13 +5101,13 @@
         <v>186975</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>338</v>
+        <v>101</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5175,13 @@
         <v>73144</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>343</v>
+        <v>54</v>
       </c>
       <c r="H7" s="7">
         <v>172</v>
@@ -5190,13 +5190,13 @@
         <v>92294</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="M7" s="7">
         <v>260</v>
@@ -5205,13 +5205,13 @@
         <v>165438</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>163</v>
+        <v>342</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,13 +5226,13 @@
         <v>468933</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>350</v>
+        <v>63</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H8" s="7">
         <v>800</v>
@@ -5241,13 +5241,13 @@
         <v>487004</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="M8" s="7">
         <v>1315</v>
@@ -5256,13 +5256,13 @@
         <v>955936</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>173</v>
+        <v>350</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,13 +5330,13 @@
         <v>121937</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H10" s="7">
         <v>248</v>
@@ -5345,13 +5345,13 @@
         <v>157060</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M10" s="7">
         <v>387</v>
@@ -5360,13 +5360,13 @@
         <v>278997</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5381,13 +5381,13 @@
         <v>903491</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H11" s="7">
         <v>1241</v>
@@ -5396,13 +5396,13 @@
         <v>885466</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="M11" s="7">
         <v>2050</v>
@@ -5411,13 +5411,13 @@
         <v>1788956</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5485,13 +5485,13 @@
         <v>88575</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H13" s="7">
         <v>142</v>
@@ -5500,13 +5500,13 @@
         <v>107113</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="M13" s="7">
         <v>241</v>
@@ -5515,13 +5515,13 @@
         <v>195688</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>378</v>
+        <v>52</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5536,13 +5536,13 @@
         <v>632475</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H14" s="7">
         <v>890</v>
@@ -5551,28 +5551,28 @@
         <v>648152</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M14" s="7">
         <v>1458</v>
       </c>
       <c r="N14" s="7">
-        <v>1280627</v>
+        <v>1280626</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>386</v>
+        <v>62</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,7 +5614,7 @@
         <v>1699</v>
       </c>
       <c r="N15" s="7">
-        <v>1476315</v>
+        <v>1476314</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5640,13 +5640,13 @@
         <v>130965</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="H16" s="7">
         <v>223</v>
@@ -5655,13 +5655,13 @@
         <v>149897</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M16" s="7">
         <v>375</v>
@@ -5670,13 +5670,13 @@
         <v>280862</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5691,13 +5691,13 @@
         <v>815062</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="H17" s="7">
         <v>1305</v>
@@ -5706,13 +5706,13 @@
         <v>973462</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="M17" s="7">
         <v>2138</v>
@@ -5721,10 +5721,10 @@
         <v>1788524</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>402</v>
@@ -5795,13 +5795,13 @@
         <v>434854</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="H19" s="7">
         <v>824</v>
@@ -5810,10 +5810,10 @@
         <v>523907</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>407</v>
@@ -5846,13 +5846,13 @@
         <v>2899706</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="H20" s="7">
         <v>4430</v>
@@ -5861,13 +5861,13 @@
         <v>3101311</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M20" s="7">
         <v>7246</v>

--- a/data/trans_orig/P57GLOBAL_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57GLOBAL_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{618C3F7E-5E7A-44DF-A239-C9FC326D1E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BF8329A-B38C-496F-B0D9-B2F9C4FE65EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{62B6094F-1AA3-4D84-9565-2A47DA75010E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{44AF097C-19E1-40A5-854A-D50E40A907A1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="423">
   <si>
     <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2007 (Tasa respuesta: 99,88%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Apoyo bajo</t>
@@ -77,28 +77,28 @@
     <t>8,41%</t>
   </si>
   <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
   </si>
   <si>
     <t>18,34%</t>
   </si>
   <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
   </si>
   <si>
     <t>13,32%</t>
   </si>
   <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
   </si>
   <si>
     <t>Apoyo normal</t>
@@ -107,1173 +107,1188 @@
     <t>91,59%</t>
   </si>
   <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
   </si>
   <si>
     <t>81,66%</t>
   </si>
   <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
   </si>
   <si>
     <t>86,68%</t>
   </si>
   <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>16,35%</t>
   </si>
   <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
   </si>
   <si>
     <t>23,17%</t>
   </si>
   <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
   </si>
   <si>
     <t>19,75%</t>
   </si>
   <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2012 (Tasa respuesta: 98,91%)</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2016 (Tasa respuesta: 99,15%)</t>
+  </si>
+  <si>
     <t>17,59%</t>
   </si>
   <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
   </si>
   <si>
     <t>82,41%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>15,61%</t>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2023 (Tasa respuesta: 98,07%)</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
   </si>
   <si>
     <t>13,26%</t>
   </si>
   <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
   </si>
   <si>
     <t>86,74%</t>
   </si>
   <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2012 (Tasa respuesta: 98,91%)</t>
-  </si>
-  <si>
-    <t>19,7%</t>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
   </si>
   <si>
     <t>13,04%</t>
   </si>
   <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
   </si>
   <si>
     <t>86,96%</t>
   </si>
   <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2015 (Tasa respuesta: 99,15%)</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2023 (Tasa respuesta: 98,07%)</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
     <t>85,73%</t>
   </si>
   <si>
@@ -1281,9 +1296,6 @@
   </si>
   <si>
     <t>85,55%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
   </si>
   <si>
     <t>86,52%</t>
@@ -1707,7 +1719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B651DED0-8387-45CA-BD84-B8A2481C5E11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267FE357-69D3-4023-9EB3-1FDC03C06228}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2329,10 +2341,10 @@
         <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,13 +2359,13 @@
         <v>596750</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>572</v>
@@ -2362,13 +2374,13 @@
         <v>556850</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1138</v>
@@ -2377,13 +2389,13 @@
         <v>1153599</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2439,7 +2451,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2451,13 +2463,13 @@
         <v>137672</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>186</v>
@@ -2466,13 +2478,13 @@
         <v>200475</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="M16" s="7">
         <v>331</v>
@@ -2481,13 +2493,13 @@
         <v>338147</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,13 +2514,13 @@
         <v>801318</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>810</v>
@@ -2517,10 +2529,10 @@
         <v>837157</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>101</v>
@@ -2770,7 +2782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E884037-126F-43C4-B6AD-514F5DE36728}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251ED12C-8038-4858-A790-801FE7323241}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2927,10 +2939,10 @@
         <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,13 +2957,13 @@
         <v>89396</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>78</v>
@@ -2960,13 +2972,13 @@
         <v>88614</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>172</v>
@@ -2975,13 +2987,13 @@
         <v>178010</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,13 +3061,13 @@
         <v>60452</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H7" s="7">
         <v>69</v>
@@ -3064,13 +3076,13 @@
         <v>75272</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M7" s="7">
         <v>128</v>
@@ -3079,13 +3091,13 @@
         <v>135724</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,13 +3112,13 @@
         <v>522185</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>478</v>
@@ -3115,13 +3127,13 @@
         <v>504174</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>966</v>
@@ -3130,13 +3142,13 @@
         <v>1026358</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,13 +3216,13 @@
         <v>179658</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>158</v>
@@ -3219,13 +3231,13 @@
         <v>176280</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>320</v>
@@ -3234,13 +3246,13 @@
         <v>355938</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>39</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,13 +3267,13 @@
         <v>827594</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H11" s="7">
         <v>774</v>
@@ -3270,13 +3282,13 @@
         <v>847617</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M11" s="7">
         <v>1538</v>
@@ -3285,13 +3297,13 @@
         <v>1675211</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,13 +3371,13 @@
         <v>137202</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>135</v>
@@ -3377,10 +3389,10 @@
         <v>125</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M13" s="7">
         <v>255</v>
@@ -3389,13 +3401,13 @@
         <v>289401</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>56</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,13 +3422,13 @@
         <v>609285</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H14" s="7">
         <v>566</v>
@@ -3425,13 +3437,13 @@
         <v>620524</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>120</v>
+        <v>186</v>
       </c>
       <c r="M14" s="7">
         <v>1124</v>
@@ -3440,13 +3452,13 @@
         <v>1229809</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>64</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,7 +3514,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3514,13 +3526,13 @@
         <v>150168</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H16" s="7">
         <v>183</v>
@@ -3529,13 +3541,13 @@
         <v>193569</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M16" s="7">
         <v>324</v>
@@ -3544,13 +3556,13 @@
         <v>343737</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,13 +3577,13 @@
         <v>788487</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H17" s="7">
         <v>805</v>
@@ -3580,13 +3592,13 @@
         <v>841364</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M17" s="7">
         <v>1565</v>
@@ -3595,13 +3607,13 @@
         <v>1629851</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3669,13 +3681,13 @@
         <v>549405</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H19" s="7">
         <v>566</v>
@@ -3684,13 +3696,13 @@
         <v>620610</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="M19" s="7">
         <v>1071</v>
@@ -3699,13 +3711,13 @@
         <v>1170015</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,13 +3732,13 @@
         <v>2836947</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H20" s="7">
         <v>2701</v>
@@ -3735,28 +3747,28 @@
         <v>2902294</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>220</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M20" s="7">
         <v>5365</v>
       </c>
       <c r="N20" s="7">
-        <v>5739240</v>
+        <v>5739239</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3798,7 +3810,7 @@
         <v>6436</v>
       </c>
       <c r="N21" s="7">
-        <v>6909255</v>
+        <v>6909254</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3833,7 +3845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377B9328-41F5-499A-9D06-C051F6BD180B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D6D90E-208D-40CE-B5EF-C9A10B7A68A9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3850,7 +3862,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3957,13 +3969,13 @@
         <v>20315</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>39</v>
+        <v>226</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -3972,13 +3984,13 @@
         <v>26517</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>45</v>
@@ -3987,13 +3999,13 @@
         <v>46832</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,7 +4020,7 @@
         <v>95173</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>49</v>
+        <v>235</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>236</v>
@@ -4163,7 +4175,7 @@
         <v>452914</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>252</v>
@@ -4273,7 +4285,7 @@
         <v>261</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="H10" s="7">
         <v>133</v>
@@ -4282,13 +4294,13 @@
         <v>147970</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M10" s="7">
         <v>265</v>
@@ -4297,13 +4309,13 @@
         <v>286971</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>267</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,13 +4330,13 @@
         <v>877247</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H11" s="7">
         <v>836</v>
@@ -4333,28 +4345,28 @@
         <v>886841</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M11" s="7">
         <v>1650</v>
       </c>
       <c r="N11" s="7">
-        <v>1764088</v>
+        <v>1764087</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,7 +4408,7 @@
         <v>1915</v>
       </c>
       <c r="N12" s="7">
-        <v>2051059</v>
+        <v>2051058</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4422,13 +4434,13 @@
         <v>134972</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H13" s="7">
         <v>141</v>
@@ -4437,13 +4449,13 @@
         <v>155675</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M13" s="7">
         <v>262</v>
@@ -4452,7 +4464,7 @@
         <v>290648</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>56</v>
+        <v>280</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>281</v>
@@ -4479,7 +4491,7 @@
         <v>284</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>142</v>
+        <v>285</v>
       </c>
       <c r="H14" s="7">
         <v>584</v>
@@ -4488,28 +4500,28 @@
         <v>616583</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M14" s="7">
         <v>1150</v>
       </c>
       <c r="N14" s="7">
-        <v>1231220</v>
+        <v>1231221</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>64</v>
+        <v>289</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,7 +4563,7 @@
         <v>1412</v>
       </c>
       <c r="N15" s="7">
-        <v>1521868</v>
+        <v>1521869</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4565,7 +4577,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4577,13 +4589,13 @@
         <v>155966</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H16" s="7">
         <v>165</v>
@@ -4592,13 +4604,13 @@
         <v>186142</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M16" s="7">
         <v>321</v>
@@ -4607,13 +4619,13 @@
         <v>342108</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,13 +4640,13 @@
         <v>774459</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H17" s="7">
         <v>785</v>
@@ -4646,10 +4658,10 @@
         <v>283</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M17" s="7">
         <v>1555</v>
@@ -4658,13 +4670,13 @@
         <v>1621955</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,13 +4744,13 @@
         <v>553561</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H19" s="7">
         <v>581</v>
@@ -4747,13 +4759,13 @@
         <v>636678</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M19" s="7">
         <v>1109</v>
@@ -4762,13 +4774,13 @@
         <v>1190238</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,13 +4795,13 @@
         <v>2814431</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="H20" s="7">
         <v>2724</v>
@@ -4798,13 +4810,13 @@
         <v>2872086</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="M20" s="7">
         <v>5404</v>
@@ -4813,13 +4825,13 @@
         <v>5686518</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>207</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4896,7 +4908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620E1125-94BF-479F-9F19-1E61A5977839}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0A343B-253D-452F-967A-DEAB4650D3EC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4913,7 +4925,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5020,13 +5032,13 @@
         <v>20233</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H4" s="7">
         <v>39</v>
@@ -5035,13 +5047,13 @@
         <v>17543</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M4" s="7">
         <v>65</v>
@@ -5050,13 +5062,13 @@
         <v>37775</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>331</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,13 +5083,13 @@
         <v>79746</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="H5" s="7">
         <v>194</v>
@@ -5086,13 +5098,13 @@
         <v>107228</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M5" s="7">
         <v>285</v>
@@ -5101,13 +5113,13 @@
         <v>186975</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>101</v>
+        <v>340</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,10 +5187,10 @@
         <v>73144</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>54</v>
@@ -5190,13 +5202,13 @@
         <v>92294</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="M7" s="7">
         <v>260</v>
@@ -5205,13 +5217,13 @@
         <v>165438</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,13 +5238,13 @@
         <v>468933</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>63</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="H8" s="7">
         <v>800</v>
@@ -5241,13 +5253,13 @@
         <v>487004</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="M8" s="7">
         <v>1315</v>
@@ -5256,13 +5268,13 @@
         <v>955936</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,13 +5342,13 @@
         <v>121937</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="H10" s="7">
         <v>248</v>
@@ -5345,13 +5357,13 @@
         <v>157060</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>358</v>
+        <v>180</v>
       </c>
       <c r="M10" s="7">
         <v>387</v>
@@ -5360,13 +5372,13 @@
         <v>278997</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5381,13 +5393,13 @@
         <v>903491</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="H11" s="7">
         <v>1241</v>
@@ -5396,13 +5408,13 @@
         <v>885466</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>365</v>
+        <v>188</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="M11" s="7">
         <v>2050</v>
@@ -5411,13 +5423,13 @@
         <v>1788956</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5485,13 +5497,13 @@
         <v>88575</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H13" s="7">
         <v>142</v>
@@ -5500,13 +5512,13 @@
         <v>107113</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="M13" s="7">
         <v>241</v>
@@ -5515,13 +5527,13 @@
         <v>195688</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>52</v>
+        <v>379</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5536,13 +5548,13 @@
         <v>632475</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="H14" s="7">
         <v>890</v>
@@ -5551,13 +5563,13 @@
         <v>648152</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="M14" s="7">
         <v>1458</v>
@@ -5566,13 +5578,13 @@
         <v>1280626</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>62</v>
+        <v>388</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,7 +5640,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5640,13 +5652,13 @@
         <v>130965</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>385</v>
+        <v>149</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="H16" s="7">
         <v>223</v>
@@ -5655,13 +5667,13 @@
         <v>149897</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="M16" s="7">
         <v>375</v>
@@ -5670,13 +5682,13 @@
         <v>280862</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5691,13 +5703,13 @@
         <v>815062</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>394</v>
+        <v>157</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="H17" s="7">
         <v>1305</v>
@@ -5706,13 +5718,13 @@
         <v>973462</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="M17" s="7">
         <v>2138</v>
@@ -5721,13 +5733,13 @@
         <v>1788524</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,13 +5807,13 @@
         <v>434854</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>126</v>
+        <v>407</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H19" s="7">
         <v>824</v>
@@ -5810,13 +5822,13 @@
         <v>523907</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>407</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
         <v>1328</v>
@@ -5825,13 +5837,13 @@
         <v>958761</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5846,13 +5858,13 @@
         <v>2899706</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>136</v>
+        <v>415</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="H20" s="7">
         <v>4430</v>
@@ -5861,13 +5873,13 @@
         <v>3101311</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>414</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="M20" s="7">
         <v>7246</v>
@@ -5876,13 +5888,13 @@
         <v>6001017</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P57GLOBAL_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57GLOBAL_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BF8329A-B38C-496F-B0D9-B2F9C4FE65EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A84F5A1F-9218-443D-8357-3DAEAFA6065E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{44AF097C-19E1-40A5-854A-D50E40A907A1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AE5EE4AF-D3A3-415F-91B0-B85AF3A5B209}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="447">
   <si>
     <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2007 (Tasa respuesta: 99,88%)</t>
   </si>
@@ -74,1240 +74,1312 @@
     <t>Apoyo bajo</t>
   </si>
   <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>Apoyo normal</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2012 (Tasa respuesta: 98,91%)</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
   </si>
   <si>
     <t>25,57%</t>
   </si>
   <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>Apoyo normal</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2016 (Tasa respuesta: 99,15%)</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
   </si>
   <si>
     <t>18,57%</t>
   </si>
   <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
   </si>
   <si>
     <t>15,21%</t>
   </si>
   <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2012 (Tasa respuesta: 98,91%)</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2016 (Tasa respuesta: 99,15%)</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
   </si>
   <si>
     <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2023 (Tasa respuesta: 98,07%)</t>
   </si>
   <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
   </si>
 </sst>
 </file>
@@ -1719,7 +1791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267FE357-69D3-4023-9EB3-1FDC03C06228}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8570B9BE-7D38-4C85-B96C-5F196B0E60EC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1837,10 +1909,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D4" s="7">
-        <v>9702</v>
+        <v>81244</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1852,10 +1924,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="I4" s="7">
-        <v>20677</v>
+        <v>86689</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1867,10 +1939,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="N4" s="7">
-        <v>30379</v>
+        <v>167933</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1888,10 +1960,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>105656</v>
+        <v>34114</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1903,10 +1975,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="I5" s="7">
-        <v>92078</v>
+        <v>26066</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1918,10 +1990,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>201</v>
+        <v>60</v>
       </c>
       <c r="N5" s="7">
-        <v>197734</v>
+        <v>60180</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1992,10 +2064,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>95</v>
+        <v>453</v>
       </c>
       <c r="D7" s="7">
-        <v>94609</v>
+        <v>454205</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2007,10 +2079,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>129</v>
+        <v>436</v>
       </c>
       <c r="I7" s="7">
-        <v>133133</v>
+        <v>444899</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2022,10 +2094,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>224</v>
+        <v>889</v>
       </c>
       <c r="N7" s="7">
-        <v>227742</v>
+        <v>899105</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2043,10 +2115,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>483</v>
+        <v>125</v>
       </c>
       <c r="D8" s="7">
-        <v>484045</v>
+        <v>124449</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2058,10 +2130,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>438</v>
+        <v>131</v>
       </c>
       <c r="I8" s="7">
-        <v>441468</v>
+        <v>129702</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2073,10 +2145,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>921</v>
+        <v>256</v>
       </c>
       <c r="N8" s="7">
-        <v>925513</v>
+        <v>254150</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2147,10 +2219,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>140</v>
+        <v>627</v>
       </c>
       <c r="D10" s="7">
-        <v>149943</v>
+        <v>674069</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2162,10 +2234,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>145</v>
+        <v>660</v>
       </c>
       <c r="I10" s="7">
-        <v>159728</v>
+        <v>715326</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2177,10 +2249,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>285</v>
+        <v>1287</v>
       </c>
       <c r="N10" s="7">
-        <v>309671</v>
+        <v>1389395</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2198,10 +2270,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>755</v>
+        <v>268</v>
       </c>
       <c r="D11" s="7">
-        <v>810773</v>
+        <v>286647</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2213,10 +2285,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>762</v>
+        <v>247</v>
       </c>
       <c r="I11" s="7">
-        <v>807514</v>
+        <v>251916</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2228,10 +2300,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1517</v>
+        <v>515</v>
       </c>
       <c r="N11" s="7">
-        <v>1618287</v>
+        <v>538563</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2302,10 +2374,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>74</v>
+        <v>421</v>
       </c>
       <c r="D13" s="7">
-        <v>80008</v>
+        <v>438139</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2317,10 +2389,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>124</v>
+        <v>471</v>
       </c>
       <c r="I13" s="7">
-        <v>126991</v>
+        <v>461929</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2332,19 +2404,19 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>198</v>
+        <v>892</v>
       </c>
       <c r="N13" s="7">
-        <v>207000</v>
+        <v>900068</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,49 +2425,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>566</v>
+        <v>219</v>
       </c>
       <c r="D14" s="7">
-        <v>596750</v>
+        <v>238619</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>572</v>
+        <v>225</v>
       </c>
       <c r="I14" s="7">
-        <v>556850</v>
+        <v>221912</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1138</v>
+        <v>444</v>
       </c>
       <c r="N14" s="7">
-        <v>1153599</v>
+        <v>460531</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2451,55 +2523,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>145</v>
+        <v>690</v>
       </c>
       <c r="D16" s="7">
-        <v>137672</v>
+        <v>655704</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>186</v>
+        <v>698</v>
       </c>
       <c r="I16" s="7">
-        <v>200475</v>
+        <v>731823</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>331</v>
+        <v>1388</v>
       </c>
       <c r="N16" s="7">
-        <v>338147</v>
+        <v>1387526</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2508,49 +2580,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>846</v>
+        <v>301</v>
       </c>
       <c r="D17" s="7">
-        <v>801318</v>
+        <v>283286</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>810</v>
+        <v>298</v>
       </c>
       <c r="I17" s="7">
-        <v>837157</v>
+        <v>305809</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>1656</v>
+        <v>599</v>
       </c>
       <c r="N17" s="7">
-        <v>1638475</v>
+        <v>589096</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,49 +2684,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>463</v>
+        <v>2266</v>
       </c>
       <c r="D19" s="7">
-        <v>471934</v>
+        <v>2303361</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
-        <v>607</v>
+        <v>2363</v>
       </c>
       <c r="I19" s="7">
-        <v>641005</v>
+        <v>2440667</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
-        <v>1070</v>
+        <v>4629</v>
       </c>
       <c r="N19" s="7">
-        <v>1112939</v>
+        <v>4744028</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,13 +2735,13 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>2746</v>
+        <v>943</v>
       </c>
       <c r="D20" s="7">
-        <v>2798542</v>
+        <v>967115</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>115</v>
@@ -2678,10 +2750,10 @@
         <v>116</v>
       </c>
       <c r="H20" s="7">
-        <v>2687</v>
+        <v>931</v>
       </c>
       <c r="I20" s="7">
-        <v>2735067</v>
+        <v>935405</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>117</v>
@@ -2693,10 +2765,10 @@
         <v>119</v>
       </c>
       <c r="M20" s="7">
-        <v>5433</v>
+        <v>1874</v>
       </c>
       <c r="N20" s="7">
-        <v>5533609</v>
+        <v>1902520</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>120</v>
@@ -2782,7 +2854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251ED12C-8038-4858-A790-801FE7323241}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA66C83-A175-49C4-BD0F-AD47963478A8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2900,10 +2972,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="D4" s="7">
-        <v>21924</v>
+        <v>82748</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>125</v>
@@ -2915,10 +2987,10 @@
         <v>127</v>
       </c>
       <c r="H4" s="7">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="I4" s="7">
-        <v>23291</v>
+        <v>90031</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>128</v>
@@ -2930,19 +3002,19 @@
         <v>130</v>
       </c>
       <c r="M4" s="7">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="N4" s="7">
-        <v>45215</v>
+        <v>172779</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,49 +3023,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="D5" s="7">
-        <v>89396</v>
+        <v>28572</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="I5" s="7">
-        <v>88614</v>
+        <v>21874</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
-        <v>172</v>
+        <v>51</v>
       </c>
       <c r="N5" s="7">
-        <v>178010</v>
+        <v>50446</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,49 +3127,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>59</v>
+        <v>341</v>
       </c>
       <c r="D7" s="7">
-        <v>60452</v>
+        <v>364876</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H7" s="7">
-        <v>69</v>
+        <v>385</v>
       </c>
       <c r="I7" s="7">
-        <v>75272</v>
+        <v>409308</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M7" s="7">
-        <v>128</v>
+        <v>726</v>
       </c>
       <c r="N7" s="7">
-        <v>135724</v>
+        <v>774184</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,49 +3178,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>488</v>
+        <v>206</v>
       </c>
       <c r="D8" s="7">
-        <v>522185</v>
+        <v>217761</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
-        <v>478</v>
+        <v>162</v>
       </c>
       <c r="I8" s="7">
-        <v>504174</v>
+        <v>170138</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
-        <v>966</v>
+        <v>368</v>
       </c>
       <c r="N8" s="7">
-        <v>1026358</v>
+        <v>387899</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3190,7 +3262,7 @@
         <v>1094</v>
       </c>
       <c r="N9" s="7">
-        <v>1162082</v>
+        <v>1162083</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3210,49 +3282,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>633</v>
+      </c>
+      <c r="D10" s="7">
+        <v>692367</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D10" s="7">
-        <v>179658</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
-        <v>158</v>
+        <v>694</v>
       </c>
       <c r="I10" s="7">
-        <v>176280</v>
+        <v>765223</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
-        <v>320</v>
+        <v>1327</v>
       </c>
       <c r="N10" s="7">
-        <v>355938</v>
+        <v>1457589</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,49 +3333,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>764</v>
+        <v>293</v>
       </c>
       <c r="D11" s="7">
-        <v>827594</v>
+        <v>314885</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H11" s="7">
-        <v>774</v>
+        <v>238</v>
       </c>
       <c r="I11" s="7">
-        <v>847617</v>
+        <v>258674</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M11" s="7">
-        <v>1538</v>
+        <v>531</v>
       </c>
       <c r="N11" s="7">
-        <v>1675211</v>
+        <v>573560</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>176</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,49 +3437,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>120</v>
+        <v>442</v>
       </c>
       <c r="D13" s="7">
-        <v>137202</v>
+        <v>493541</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
-        <v>135</v>
+        <v>490</v>
       </c>
       <c r="I13" s="7">
-        <v>152199</v>
+        <v>541429</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
-        <v>255</v>
+        <v>932</v>
       </c>
       <c r="N13" s="7">
-        <v>289401</v>
+        <v>1034970</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>56</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,49 +3488,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>558</v>
+        <v>236</v>
       </c>
       <c r="D14" s="7">
-        <v>609285</v>
+        <v>252946</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
-        <v>566</v>
+        <v>211</v>
       </c>
       <c r="I14" s="7">
-        <v>620524</v>
+        <v>231294</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
-        <v>1124</v>
+        <v>447</v>
       </c>
       <c r="N14" s="7">
-        <v>1229809</v>
+        <v>484240</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>64</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,55 +3586,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>141</v>
+        <v>670</v>
       </c>
       <c r="D16" s="7">
-        <v>150168</v>
+        <v>698599</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="H16" s="7">
-        <v>183</v>
+        <v>805</v>
       </c>
       <c r="I16" s="7">
-        <v>193569</v>
+        <v>846398</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
-        <v>324</v>
+        <v>1475</v>
       </c>
       <c r="N16" s="7">
-        <v>343737</v>
+        <v>1544996</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,49 +3643,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>760</v>
+        <v>231</v>
       </c>
       <c r="D17" s="7">
-        <v>788487</v>
+        <v>240056</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="H17" s="7">
-        <v>805</v>
+        <v>183</v>
       </c>
       <c r="I17" s="7">
-        <v>841364</v>
+        <v>188535</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="M17" s="7">
-        <v>1565</v>
+        <v>414</v>
       </c>
       <c r="N17" s="7">
-        <v>1629851</v>
+        <v>428592</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,49 +3747,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>505</v>
+        <v>2172</v>
       </c>
       <c r="D19" s="7">
-        <v>549405</v>
+        <v>2332130</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="H19" s="7">
-        <v>566</v>
+        <v>2453</v>
       </c>
       <c r="I19" s="7">
-        <v>620610</v>
+        <v>2652388</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="M19" s="7">
-        <v>1071</v>
+        <v>4625</v>
       </c>
       <c r="N19" s="7">
-        <v>1170015</v>
+        <v>4984518</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,49 +3798,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>2664</v>
+        <v>997</v>
       </c>
       <c r="D20" s="7">
-        <v>2836947</v>
+        <v>1054222</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="H20" s="7">
-        <v>2701</v>
+        <v>814</v>
       </c>
       <c r="I20" s="7">
-        <v>2902294</v>
+        <v>870516</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
-        <v>5365</v>
+        <v>1811</v>
       </c>
       <c r="N20" s="7">
-        <v>5739239</v>
+        <v>1924737</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3810,7 +3882,7 @@
         <v>6436</v>
       </c>
       <c r="N21" s="7">
-        <v>6909254</v>
+        <v>6909255</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3845,7 +3917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D6D90E-208D-40CE-B5EF-C9A10B7A68A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AEABAB4-4E9D-4ACC-A08F-65C04080E14B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3862,7 +3934,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3963,49 +4035,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="D4" s="7">
-        <v>20315</v>
+        <v>82692</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>143</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="I4" s="7">
-        <v>26517</v>
+        <v>89616</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="N4" s="7">
-        <v>46832</v>
+        <v>172307</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,49 +4086,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="D5" s="7">
-        <v>95173</v>
+        <v>32796</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="H5" s="7">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>85875</v>
+        <v>22776</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="N5" s="7">
-        <v>181047</v>
+        <v>55572</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,49 +4190,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>100</v>
+        <v>437</v>
       </c>
       <c r="D7" s="7">
-        <v>103307</v>
+        <v>451920</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>73</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="H7" s="7">
-        <v>116</v>
+        <v>469</v>
       </c>
       <c r="I7" s="7">
-        <v>120373</v>
+        <v>477753</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="M7" s="7">
-        <v>216</v>
+        <v>906</v>
       </c>
       <c r="N7" s="7">
-        <v>223679</v>
+        <v>929673</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,49 +4241,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>437</v>
+        <v>100</v>
       </c>
       <c r="D8" s="7">
-        <v>452914</v>
+        <v>104301</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>81</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
-        <v>431</v>
+        <v>78</v>
       </c>
       <c r="I8" s="7">
-        <v>435293</v>
+        <v>77913</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="M8" s="7">
-        <v>868</v>
+        <v>178</v>
       </c>
       <c r="N8" s="7">
-        <v>888208</v>
+        <v>182214</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4273,49 +4345,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>132</v>
+        <v>772</v>
       </c>
       <c r="D10" s="7">
-        <v>139001</v>
+        <v>827550</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
-        <v>133</v>
+        <v>832</v>
       </c>
       <c r="I10" s="7">
-        <v>147970</v>
+        <v>894655</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7">
-        <v>265</v>
+        <v>1604</v>
       </c>
       <c r="N10" s="7">
-        <v>286971</v>
+        <v>1722204</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>94</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4324,49 +4396,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>814</v>
+        <v>174</v>
       </c>
       <c r="D11" s="7">
-        <v>877247</v>
+        <v>188698</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>224</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="H11" s="7">
-        <v>836</v>
+        <v>137</v>
       </c>
       <c r="I11" s="7">
-        <v>886841</v>
+        <v>140156</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="M11" s="7">
-        <v>1650</v>
+        <v>311</v>
       </c>
       <c r="N11" s="7">
-        <v>1764087</v>
+        <v>328854</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>104</v>
+        <v>284</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4428,49 +4500,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>121</v>
+        <v>591</v>
       </c>
       <c r="D13" s="7">
-        <v>134972</v>
+        <v>646072</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="H13" s="7">
-        <v>141</v>
+        <v>621</v>
       </c>
       <c r="I13" s="7">
-        <v>155675</v>
+        <v>663298</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="M13" s="7">
-        <v>262</v>
+        <v>1212</v>
       </c>
       <c r="N13" s="7">
-        <v>290648</v>
+        <v>1309370</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,49 +4551,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>566</v>
+        <v>96</v>
       </c>
       <c r="D14" s="7">
-        <v>614638</v>
+        <v>103538</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="H14" s="7">
-        <v>584</v>
+        <v>104</v>
       </c>
       <c r="I14" s="7">
-        <v>616583</v>
+        <v>108960</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="M14" s="7">
-        <v>1150</v>
+        <v>200</v>
       </c>
       <c r="N14" s="7">
-        <v>1231221</v>
+        <v>212498</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,7 +4635,7 @@
         <v>1412</v>
       </c>
       <c r="N15" s="7">
-        <v>1521869</v>
+        <v>1521868</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4577,55 +4649,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>156</v>
+        <v>745</v>
       </c>
       <c r="D16" s="7">
-        <v>155966</v>
+        <v>750366</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="H16" s="7">
-        <v>165</v>
+        <v>776</v>
       </c>
       <c r="I16" s="7">
-        <v>186142</v>
+        <v>849678</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="M16" s="7">
-        <v>321</v>
+        <v>1521</v>
       </c>
       <c r="N16" s="7">
-        <v>342108</v>
+        <v>1600044</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>310</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>297</v>
+        <v>235</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4634,49 +4706,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>770</v>
+        <v>181</v>
       </c>
       <c r="D17" s="7">
-        <v>774459</v>
+        <v>180059</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="H17" s="7">
-        <v>785</v>
+        <v>174</v>
       </c>
       <c r="I17" s="7">
-        <v>847496</v>
+        <v>183960</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="M17" s="7">
-        <v>1555</v>
+        <v>355</v>
       </c>
       <c r="N17" s="7">
-        <v>1621955</v>
+        <v>364019</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>318</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>305</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,49 +4810,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>528</v>
+        <v>2626</v>
       </c>
       <c r="D19" s="7">
-        <v>553561</v>
+        <v>2758599</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="H19" s="7">
-        <v>581</v>
+        <v>2788</v>
       </c>
       <c r="I19" s="7">
-        <v>636678</v>
+        <v>2975000</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="M19" s="7">
-        <v>1109</v>
+        <v>5414</v>
       </c>
       <c r="N19" s="7">
-        <v>1190238</v>
+        <v>5733599</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,49 +4861,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>2680</v>
+        <v>582</v>
       </c>
       <c r="D20" s="7">
-        <v>2814431</v>
+        <v>609393</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="H20" s="7">
-        <v>2724</v>
+        <v>517</v>
       </c>
       <c r="I20" s="7">
-        <v>2872086</v>
+        <v>533764</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="M20" s="7">
-        <v>5404</v>
+        <v>1099</v>
       </c>
       <c r="N20" s="7">
-        <v>5686518</v>
+        <v>1143157</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4908,7 +4980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0A343B-253D-452F-967A-DEAB4650D3EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27F26C8-FB20-403A-AC99-DE21D655C59F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4925,7 +4997,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5026,49 +5098,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="D4" s="7">
-        <v>20233</v>
+        <v>63011</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="H4" s="7">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="I4" s="7">
-        <v>17543</v>
+        <v>76285</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="M4" s="7">
-        <v>65</v>
+        <v>235</v>
       </c>
       <c r="N4" s="7">
-        <v>37775</v>
+        <v>139296</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,49 +5149,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="D5" s="7">
-        <v>79746</v>
+        <v>36968</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="H5" s="7">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="I5" s="7">
-        <v>107228</v>
+        <v>48486</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="M5" s="7">
-        <v>285</v>
+        <v>115</v>
       </c>
       <c r="N5" s="7">
-        <v>186975</v>
+        <v>85454</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,49 +5253,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>88</v>
+        <v>382</v>
       </c>
       <c r="D7" s="7">
-        <v>73144</v>
+        <v>322644</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>54</v>
+        <v>359</v>
       </c>
       <c r="H7" s="7">
-        <v>172</v>
+        <v>651</v>
       </c>
       <c r="I7" s="7">
-        <v>92294</v>
+        <v>367828</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="M7" s="7">
-        <v>260</v>
+        <v>1033</v>
       </c>
       <c r="N7" s="7">
-        <v>165438</v>
+        <v>690471</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,49 +5304,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>515</v>
+        <v>221</v>
       </c>
       <c r="D8" s="7">
-        <v>468933</v>
+        <v>219433</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>63</v>
+        <v>367</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="H8" s="7">
-        <v>800</v>
+        <v>321</v>
       </c>
       <c r="I8" s="7">
-        <v>487004</v>
+        <v>211470</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="M8" s="7">
-        <v>1315</v>
+        <v>542</v>
       </c>
       <c r="N8" s="7">
-        <v>955936</v>
+        <v>430903</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,49 +5408,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>139</v>
+        <v>645</v>
       </c>
       <c r="D10" s="7">
-        <v>121937</v>
+        <v>641974</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="H10" s="7">
-        <v>248</v>
+        <v>1064</v>
       </c>
       <c r="I10" s="7">
-        <v>157060</v>
+        <v>715867</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>180</v>
+        <v>380</v>
       </c>
       <c r="M10" s="7">
-        <v>387</v>
+        <v>1709</v>
       </c>
       <c r="N10" s="7">
-        <v>278997</v>
+        <v>1357840</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,49 +5459,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>809</v>
+        <v>303</v>
       </c>
       <c r="D11" s="7">
-        <v>903491</v>
+        <v>383454</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="H11" s="7">
-        <v>1241</v>
+        <v>425</v>
       </c>
       <c r="I11" s="7">
-        <v>885466</v>
+        <v>326659</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>188</v>
+        <v>388</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="M11" s="7">
-        <v>2050</v>
+        <v>728</v>
       </c>
       <c r="N11" s="7">
-        <v>1788956</v>
+        <v>710113</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5491,49 +5563,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>99</v>
+        <v>459</v>
       </c>
       <c r="D13" s="7">
-        <v>88575</v>
+        <v>482626</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="H13" s="7">
-        <v>142</v>
+        <v>687</v>
       </c>
       <c r="I13" s="7">
-        <v>107113</v>
+        <v>489844</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="M13" s="7">
-        <v>241</v>
+        <v>1146</v>
       </c>
       <c r="N13" s="7">
-        <v>195688</v>
+        <v>972470</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5542,49 +5614,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>568</v>
+        <v>208</v>
       </c>
       <c r="D14" s="7">
-        <v>632475</v>
+        <v>238424</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="H14" s="7">
-        <v>890</v>
+        <v>345</v>
       </c>
       <c r="I14" s="7">
-        <v>648152</v>
+        <v>265421</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="M14" s="7">
-        <v>1458</v>
+        <v>553</v>
       </c>
       <c r="N14" s="7">
-        <v>1280626</v>
+        <v>503845</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5626,7 +5698,7 @@
         <v>1699</v>
       </c>
       <c r="N15" s="7">
-        <v>1476314</v>
+        <v>1476315</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5640,55 +5712,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>152</v>
+        <v>654</v>
       </c>
       <c r="D16" s="7">
-        <v>130965</v>
+        <v>600226</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>149</v>
+        <v>411</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="H16" s="7">
-        <v>223</v>
+        <v>988</v>
       </c>
       <c r="I16" s="7">
-        <v>149897</v>
+        <v>697743</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="M16" s="7">
-        <v>375</v>
+        <v>1642</v>
       </c>
       <c r="N16" s="7">
-        <v>280862</v>
+        <v>1297969</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5697,49 +5769,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>833</v>
+        <v>331</v>
       </c>
       <c r="D17" s="7">
-        <v>815062</v>
+        <v>345801</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>157</v>
+        <v>420</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="H17" s="7">
-        <v>1305</v>
+        <v>540</v>
       </c>
       <c r="I17" s="7">
-        <v>973462</v>
+        <v>425616</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="M17" s="7">
-        <v>2138</v>
+        <v>871</v>
       </c>
       <c r="N17" s="7">
-        <v>1788524</v>
+        <v>771417</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>404</v>
+        <v>426</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>405</v>
+        <v>427</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>406</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5801,49 +5873,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>504</v>
+        <v>2220</v>
       </c>
       <c r="D19" s="7">
-        <v>434854</v>
+        <v>2110480</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="H19" s="7">
-        <v>824</v>
+        <v>3545</v>
       </c>
       <c r="I19" s="7">
-        <v>523907</v>
+        <v>2347567</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>107</v>
+        <v>434</v>
       </c>
       <c r="M19" s="7">
-        <v>1328</v>
+        <v>5765</v>
       </c>
       <c r="N19" s="7">
-        <v>958761</v>
+        <v>4458047</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>414</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5852,49 +5924,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>2816</v>
+        <v>1100</v>
       </c>
       <c r="D20" s="7">
-        <v>2899706</v>
+        <v>1224080</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="H20" s="7">
-        <v>4430</v>
+        <v>1709</v>
       </c>
       <c r="I20" s="7">
-        <v>3101311</v>
+        <v>1277651</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>442</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="M20" s="7">
-        <v>7246</v>
+        <v>2809</v>
       </c>
       <c r="N20" s="7">
-        <v>6001017</v>
+        <v>2501731</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P57GLOBAL_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57GLOBAL_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A84F5A1F-9218-443D-8357-3DAEAFA6065E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7056C95D-06F5-4614-9B5D-2F59EF067336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AE5EE4AF-D3A3-415F-91B0-B85AF3A5B209}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1CA0138F-A87E-4F57-AB82-46E8D6F63E16}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="376">
   <si>
     <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2007 (Tasa respuesta: 99,88%)</t>
   </si>
@@ -68,324 +68,273 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Apoyo bajo</t>
   </si>
   <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>Apoyo normal</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
     <t>70,43%</t>
   </si>
   <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>Apoyo normal</t>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
   </si>
   <si>
     <t>29,57%</t>
   </si>
   <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
     <t>28,01%</t>
   </si>
   <si>
@@ -416,112 +365,58 @@
     <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2012 (Tasa respuesta: 98,91%)</t>
   </si>
   <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
   </si>
   <si>
     <t>68,74%</t>
@@ -743,264 +638,216 @@
     <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2016 (Tasa respuesta: 99,15%)</t>
   </si>
   <si>
-    <t>71,6%</t>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
   </si>
   <si>
     <t>79,56%</t>
   </si>
   <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
   </si>
   <si>
     <t>20,44%</t>
   </si>
   <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
     <t>81,91%</t>
   </si>
   <si>
@@ -1058,328 +905,268 @@
     <t>Población con apoyo social funcional bajo, por encima del percentil 15 (Duke) en 2023 (Tasa respuesta: 98,07%)</t>
   </si>
   <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
   </si>
   <si>
     <t>65,66%</t>
   </si>
   <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
   </si>
   <si>
     <t>34,34%</t>
   </si>
   <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
   </si>
   <si>
     <t>63,45%</t>
   </si>
   <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
   </si>
   <si>
     <t>36,55%</t>
   </si>
   <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
+    <t>48,13%</t>
   </si>
 </sst>
 </file>
@@ -1791,8 +1578,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8570B9BE-7D38-4C85-B96C-5F196B0E60EC}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7B3EE9-3279-4648-862A-993CFAE7920D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1909,10 +1696,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>75</v>
+        <v>528</v>
       </c>
       <c r="D4" s="7">
-        <v>81244</v>
+        <v>535450</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1924,10 +1711,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>98</v>
+        <v>534</v>
       </c>
       <c r="I4" s="7">
-        <v>86689</v>
+        <v>531588</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1939,10 +1726,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>173</v>
+        <v>1062</v>
       </c>
       <c r="N4" s="7">
-        <v>167933</v>
+        <v>1067038</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1960,10 +1747,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="D5" s="7">
-        <v>34114</v>
+        <v>158562</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1975,10 +1762,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="I5" s="7">
-        <v>26066</v>
+        <v>155768</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1990,10 +1777,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>60</v>
+        <v>316</v>
       </c>
       <c r="N5" s="7">
-        <v>60180</v>
+        <v>314330</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2011,10 +1798,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2026,10 +1813,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>695</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>687356</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2041,10 +1828,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1378</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1381368</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2064,10 +1851,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>453</v>
+        <v>627</v>
       </c>
       <c r="D7" s="7">
-        <v>454205</v>
+        <v>674069</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2079,10 +1866,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>436</v>
+        <v>660</v>
       </c>
       <c r="I7" s="7">
-        <v>444899</v>
+        <v>715326</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2094,10 +1881,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>889</v>
+        <v>1287</v>
       </c>
       <c r="N7" s="7">
-        <v>899105</v>
+        <v>1389395</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2115,10 +1902,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>125</v>
+        <v>268</v>
       </c>
       <c r="D8" s="7">
-        <v>124449</v>
+        <v>286647</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2130,10 +1917,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>131</v>
+        <v>247</v>
       </c>
       <c r="I8" s="7">
-        <v>129702</v>
+        <v>251916</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2145,10 +1932,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>256</v>
+        <v>515</v>
       </c>
       <c r="N8" s="7">
-        <v>254150</v>
+        <v>538563</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2166,10 +1953,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>895</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>960716</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2181,10 +1968,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>567</v>
+        <v>907</v>
       </c>
       <c r="I9" s="7">
-        <v>574601</v>
+        <v>967242</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2196,10 +1983,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1145</v>
+        <v>1802</v>
       </c>
       <c r="N9" s="7">
-        <v>1153255</v>
+        <v>1927958</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2219,10 +2006,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>627</v>
+        <v>421</v>
       </c>
       <c r="D10" s="7">
-        <v>674069</v>
+        <v>438139</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2234,10 +2021,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>660</v>
+        <v>471</v>
       </c>
       <c r="I10" s="7">
-        <v>715326</v>
+        <v>461929</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2249,10 +2036,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>1287</v>
+        <v>892</v>
       </c>
       <c r="N10" s="7">
-        <v>1389395</v>
+        <v>900068</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2270,10 +2057,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="D11" s="7">
-        <v>286647</v>
+        <v>238619</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2285,10 +2072,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="I11" s="7">
-        <v>251916</v>
+        <v>221912</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2300,10 +2087,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>515</v>
+        <v>444</v>
       </c>
       <c r="N11" s="7">
-        <v>538563</v>
+        <v>460531</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2321,10 +2108,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>895</v>
+        <v>640</v>
       </c>
       <c r="D12" s="7">
-        <v>960716</v>
+        <v>676758</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2336,10 +2123,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>907</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>967242</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2351,10 +2138,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1802</v>
+        <v>1336</v>
       </c>
       <c r="N12" s="7">
-        <v>1927958</v>
+        <v>1360599</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2374,10 +2161,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>421</v>
+        <v>690</v>
       </c>
       <c r="D13" s="7">
-        <v>438139</v>
+        <v>655704</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2389,10 +2176,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>471</v>
+        <v>698</v>
       </c>
       <c r="I13" s="7">
-        <v>461929</v>
+        <v>731823</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2404,10 +2191,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>892</v>
+        <v>1388</v>
       </c>
       <c r="N13" s="7">
-        <v>900068</v>
+        <v>1387526</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2425,10 +2212,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>219</v>
+        <v>301</v>
       </c>
       <c r="D14" s="7">
-        <v>238619</v>
+        <v>283286</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2440,10 +2227,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>225</v>
+        <v>298</v>
       </c>
       <c r="I14" s="7">
-        <v>221912</v>
+        <v>305809</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2455,10 +2242,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>444</v>
+        <v>599</v>
       </c>
       <c r="N14" s="7">
-        <v>460531</v>
+        <v>589096</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2476,10 +2263,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>640</v>
+        <v>991</v>
       </c>
       <c r="D15" s="7">
-        <v>676758</v>
+        <v>938990</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2491,10 +2278,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>996</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1037632</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2506,10 +2293,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1336</v>
+        <v>1987</v>
       </c>
       <c r="N15" s="7">
-        <v>1360599</v>
+        <v>1976622</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2523,55 +2310,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>690</v>
+        <v>2266</v>
       </c>
       <c r="D16" s="7">
-        <v>655704</v>
+        <v>2303361</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>2363</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2440666</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>698</v>
-      </c>
-      <c r="I16" s="7">
-        <v>731823</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>4629</v>
+      </c>
+      <c r="N16" s="7">
+        <v>4744028</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>1388</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1387526</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,49 +2367,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>301</v>
+        <v>943</v>
       </c>
       <c r="D17" s="7">
-        <v>283286</v>
+        <v>967115</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>931</v>
+      </c>
+      <c r="I17" s="7">
+        <v>935405</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>298</v>
-      </c>
-      <c r="I17" s="7">
-        <v>305809</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1874</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1902520</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>599</v>
-      </c>
-      <c r="N17" s="7">
-        <v>589096</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2631,10 +2418,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>991</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>938990</v>
+        <v>3270476</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2646,10 +2433,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>996</v>
+        <v>3294</v>
       </c>
       <c r="I18" s="7">
-        <v>1037632</v>
+        <v>3376071</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2661,10 +2448,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1987</v>
+        <v>6503</v>
       </c>
       <c r="N18" s="7">
-        <v>1976622</v>
+        <v>6646548</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2677,171 +2464,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2266</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2303361</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2363</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2440667</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M19" s="7">
-        <v>4629</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4744028</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>943</v>
-      </c>
-      <c r="D20" s="7">
-        <v>967115</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>931</v>
-      </c>
-      <c r="I20" s="7">
-        <v>935405</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1874</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1902520</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3270476</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3294</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3376072</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6503</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6646548</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2854,8 +2485,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA66C83-A175-49C4-BD0F-AD47963478A8}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F56EEFE-476B-47E9-A49C-1F8ACE981780}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2871,7 +2502,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2972,49 +2603,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>86</v>
+        <v>427</v>
       </c>
       <c r="D4" s="7">
-        <v>82748</v>
+        <v>447624</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>79</v>
+        <v>464</v>
       </c>
       <c r="I4" s="7">
-        <v>90031</v>
+        <v>499339</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>165</v>
+        <v>891</v>
       </c>
       <c r="N4" s="7">
-        <v>172779</v>
+        <v>946962</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,49 +2654,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>31</v>
+        <v>237</v>
       </c>
       <c r="D5" s="7">
-        <v>28572</v>
+        <v>246333</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c r="I5" s="7">
-        <v>21874</v>
+        <v>192012</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>51</v>
+        <v>419</v>
       </c>
       <c r="N5" s="7">
-        <v>50446</v>
+        <v>438345</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,10 +2705,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>117</v>
+        <v>664</v>
       </c>
       <c r="D6" s="7">
-        <v>111320</v>
+        <v>693957</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3089,10 +2720,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>646</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>691351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3104,10 +2735,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>216</v>
+        <v>1310</v>
       </c>
       <c r="N6" s="7">
-        <v>223225</v>
+        <v>1385307</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3127,49 +2758,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>341</v>
+        <v>633</v>
       </c>
       <c r="D7" s="7">
-        <v>364876</v>
+        <v>692367</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>385</v>
+        <v>694</v>
       </c>
       <c r="I7" s="7">
-        <v>409308</v>
+        <v>765223</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>726</v>
+        <v>1327</v>
       </c>
       <c r="N7" s="7">
-        <v>774184</v>
+        <v>1457589</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3178,49 +2809,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>206</v>
+        <v>293</v>
       </c>
       <c r="D8" s="7">
-        <v>217761</v>
+        <v>314885</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>162</v>
+        <v>238</v>
       </c>
       <c r="I8" s="7">
-        <v>170138</v>
+        <v>258674</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>368</v>
+        <v>531</v>
       </c>
       <c r="N8" s="7">
-        <v>387899</v>
+        <v>573560</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3229,10 +2860,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>547</v>
+        <v>926</v>
       </c>
       <c r="D9" s="7">
-        <v>582637</v>
+        <v>1007252</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3244,10 +2875,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>547</v>
+        <v>932</v>
       </c>
       <c r="I9" s="7">
-        <v>579446</v>
+        <v>1023897</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3259,10 +2890,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1094</v>
+        <v>1858</v>
       </c>
       <c r="N9" s="7">
-        <v>1162083</v>
+        <v>2031149</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3282,49 +2913,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>633</v>
+        <v>442</v>
       </c>
       <c r="D10" s="7">
-        <v>692367</v>
+        <v>493541</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>694</v>
+        <v>490</v>
       </c>
       <c r="I10" s="7">
-        <v>765223</v>
+        <v>541429</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>1327</v>
+        <v>932</v>
       </c>
       <c r="N10" s="7">
-        <v>1457589</v>
+        <v>1034970</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3333,49 +2964,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="D11" s="7">
-        <v>314885</v>
+        <v>252946</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="I11" s="7">
-        <v>258674</v>
+        <v>231294</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
-        <v>531</v>
+        <v>447</v>
       </c>
       <c r="N11" s="7">
-        <v>573560</v>
+        <v>484241</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3384,10 +3015,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>926</v>
+        <v>678</v>
       </c>
       <c r="D12" s="7">
-        <v>1007252</v>
+        <v>746487</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3399,10 +3030,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>932</v>
+        <v>701</v>
       </c>
       <c r="I12" s="7">
-        <v>1023897</v>
+        <v>772723</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3414,10 +3045,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1858</v>
+        <v>1379</v>
       </c>
       <c r="N12" s="7">
-        <v>2031149</v>
+        <v>1519211</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3437,49 +3068,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>442</v>
+        <v>670</v>
       </c>
       <c r="D13" s="7">
-        <v>493541</v>
+        <v>698599</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>490</v>
+        <v>805</v>
       </c>
       <c r="I13" s="7">
-        <v>541429</v>
+        <v>846398</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
-        <v>932</v>
+        <v>1475</v>
       </c>
       <c r="N13" s="7">
-        <v>1034970</v>
+        <v>1544996</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3488,49 +3119,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D14" s="7">
-        <v>252946</v>
+        <v>240056</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="I14" s="7">
-        <v>231294</v>
+        <v>188535</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
-        <v>447</v>
+        <v>414</v>
       </c>
       <c r="N14" s="7">
-        <v>484240</v>
+        <v>428592</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,10 +3170,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>678</v>
+        <v>901</v>
       </c>
       <c r="D15" s="7">
-        <v>746487</v>
+        <v>938655</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3554,10 +3185,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>701</v>
+        <v>988</v>
       </c>
       <c r="I15" s="7">
-        <v>772723</v>
+        <v>1034933</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3569,10 +3200,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1379</v>
+        <v>1889</v>
       </c>
       <c r="N15" s="7">
-        <v>1519210</v>
+        <v>1973588</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3586,55 +3217,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>670</v>
+        <v>2172</v>
       </c>
       <c r="D16" s="7">
-        <v>698599</v>
+        <v>2332130</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
-        <v>805</v>
+        <v>2453</v>
       </c>
       <c r="I16" s="7">
-        <v>846398</v>
+        <v>2652387</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
-        <v>1475</v>
+        <v>4625</v>
       </c>
       <c r="N16" s="7">
-        <v>1544996</v>
+        <v>4984518</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3643,49 +3274,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>231</v>
+        <v>997</v>
       </c>
       <c r="D17" s="7">
-        <v>240056</v>
+        <v>1054222</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="H17" s="7">
-        <v>183</v>
+        <v>814</v>
       </c>
       <c r="I17" s="7">
-        <v>188535</v>
+        <v>870516</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="M17" s="7">
-        <v>414</v>
+        <v>1811</v>
       </c>
       <c r="N17" s="7">
-        <v>428592</v>
+        <v>1924737</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,10 +3325,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>901</v>
+        <v>3169</v>
       </c>
       <c r="D18" s="7">
-        <v>938655</v>
+        <v>3386352</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3709,10 +3340,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>988</v>
+        <v>3267</v>
       </c>
       <c r="I18" s="7">
-        <v>1034933</v>
+        <v>3522903</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3724,10 +3355,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1889</v>
+        <v>6436</v>
       </c>
       <c r="N18" s="7">
-        <v>1973588</v>
+        <v>6909255</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3740,171 +3371,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2172</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2332130</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2453</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2652388</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M19" s="7">
-        <v>4625</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4984518</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>997</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1054222</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H20" s="7">
-        <v>814</v>
-      </c>
-      <c r="I20" s="7">
-        <v>870516</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1811</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1924737</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3169</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3386352</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3267</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3522904</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6436</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6909255</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3917,8 +3392,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AEABAB4-4E9D-4ACC-A08F-65C04080E14B}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0483FA5-966D-4D46-8D1A-2D8E8F62B668}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3934,7 +3409,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4035,49 +3510,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>81</v>
+        <v>518</v>
       </c>
       <c r="D4" s="7">
-        <v>82692</v>
+        <v>534612</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="H4" s="7">
-        <v>90</v>
+        <v>559</v>
       </c>
       <c r="I4" s="7">
-        <v>89616</v>
+        <v>567368</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
-        <v>171</v>
+        <v>1077</v>
       </c>
       <c r="N4" s="7">
-        <v>172307</v>
+        <v>1101980</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,49 +3561,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="D5" s="7">
-        <v>32796</v>
+        <v>137097</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>152</v>
+        <v>210</v>
       </c>
       <c r="H5" s="7">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="I5" s="7">
-        <v>22776</v>
+        <v>100689</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="M5" s="7">
-        <v>55</v>
+        <v>233</v>
       </c>
       <c r="N5" s="7">
-        <v>55572</v>
+        <v>237786</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4137,10 +3612,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>112</v>
+        <v>649</v>
       </c>
       <c r="D6" s="7">
-        <v>115488</v>
+        <v>671709</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4152,10 +3627,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>114</v>
+        <v>661</v>
       </c>
       <c r="I6" s="7">
-        <v>112392</v>
+        <v>668057</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4167,10 +3642,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>226</v>
+        <v>1310</v>
       </c>
       <c r="N6" s="7">
-        <v>227879</v>
+        <v>1339766</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4190,49 +3665,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>437</v>
+        <v>772</v>
       </c>
       <c r="D7" s="7">
-        <v>451920</v>
+        <v>827550</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="H7" s="7">
-        <v>469</v>
+        <v>832</v>
       </c>
       <c r="I7" s="7">
-        <v>477753</v>
+        <v>894655</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="M7" s="7">
-        <v>906</v>
+        <v>1604</v>
       </c>
       <c r="N7" s="7">
-        <v>929673</v>
+        <v>1722205</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>205</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,49 +3716,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="D8" s="7">
-        <v>104301</v>
+        <v>188698</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="H8" s="7">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="I8" s="7">
-        <v>77913</v>
+        <v>140156</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="M8" s="7">
-        <v>178</v>
+        <v>311</v>
       </c>
       <c r="N8" s="7">
-        <v>182214</v>
+        <v>328854</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,10 +3767,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>537</v>
+        <v>946</v>
       </c>
       <c r="D9" s="7">
-        <v>556221</v>
+        <v>1016248</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4307,10 +3782,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>547</v>
+        <v>969</v>
       </c>
       <c r="I9" s="7">
-        <v>555666</v>
+        <v>1034811</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4322,10 +3797,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1084</v>
+        <v>1915</v>
       </c>
       <c r="N9" s="7">
-        <v>1111887</v>
+        <v>2051059</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4345,49 +3820,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>772</v>
+        <v>591</v>
       </c>
       <c r="D10" s="7">
-        <v>827550</v>
+        <v>646072</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="H10" s="7">
-        <v>832</v>
+        <v>621</v>
       </c>
       <c r="I10" s="7">
-        <v>894655</v>
+        <v>663298</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
-        <v>1604</v>
+        <v>1212</v>
       </c>
       <c r="N10" s="7">
-        <v>1722204</v>
+        <v>1309371</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,49 +3871,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>174</v>
+        <v>96</v>
       </c>
       <c r="D11" s="7">
-        <v>188698</v>
+        <v>103538</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="H11" s="7">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="I11" s="7">
-        <v>140156</v>
+        <v>108960</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="M11" s="7">
-        <v>311</v>
+        <v>200</v>
       </c>
       <c r="N11" s="7">
-        <v>328854</v>
+        <v>212498</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,10 +3922,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>946</v>
+        <v>687</v>
       </c>
       <c r="D12" s="7">
-        <v>1016248</v>
+        <v>749610</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4462,10 +3937,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>969</v>
+        <v>725</v>
       </c>
       <c r="I12" s="7">
-        <v>1034811</v>
+        <v>772258</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4477,10 +3952,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1915</v>
+        <v>1412</v>
       </c>
       <c r="N12" s="7">
-        <v>2051058</v>
+        <v>1521869</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4500,49 +3975,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>591</v>
+        <v>745</v>
       </c>
       <c r="D13" s="7">
-        <v>646072</v>
+        <v>750366</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="H13" s="7">
-        <v>621</v>
+        <v>776</v>
       </c>
       <c r="I13" s="7">
-        <v>663298</v>
+        <v>849678</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="M13" s="7">
-        <v>1212</v>
+        <v>1521</v>
       </c>
       <c r="N13" s="7">
-        <v>1309370</v>
+        <v>1600044</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,49 +4026,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="D14" s="7">
-        <v>103538</v>
+        <v>180059</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="H14" s="7">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="I14" s="7">
-        <v>108960</v>
+        <v>183960</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="M14" s="7">
-        <v>200</v>
+        <v>355</v>
       </c>
       <c r="N14" s="7">
-        <v>212498</v>
+        <v>364019</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,10 +4077,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>687</v>
+        <v>926</v>
       </c>
       <c r="D15" s="7">
-        <v>749610</v>
+        <v>930425</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4617,10 +4092,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>725</v>
+        <v>950</v>
       </c>
       <c r="I15" s="7">
-        <v>772258</v>
+        <v>1033638</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4632,10 +4107,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1412</v>
+        <v>1876</v>
       </c>
       <c r="N15" s="7">
-        <v>1521868</v>
+        <v>1964063</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4649,55 +4124,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>745</v>
+        <v>2626</v>
       </c>
       <c r="D16" s="7">
-        <v>750366</v>
+        <v>2758599</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="H16" s="7">
-        <v>776</v>
+        <v>2788</v>
       </c>
       <c r="I16" s="7">
-        <v>849678</v>
+        <v>2975000</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="M16" s="7">
-        <v>1521</v>
+        <v>5414</v>
       </c>
       <c r="N16" s="7">
-        <v>1600044</v>
+        <v>5733599</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>235</v>
+        <v>276</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,49 +4181,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>181</v>
+        <v>582</v>
       </c>
       <c r="D17" s="7">
-        <v>180059</v>
+        <v>609393</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
       <c r="H17" s="7">
-        <v>174</v>
+        <v>517</v>
       </c>
       <c r="I17" s="7">
-        <v>183960</v>
+        <v>533764</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="M17" s="7">
-        <v>355</v>
+        <v>1099</v>
       </c>
       <c r="N17" s="7">
-        <v>364019</v>
+        <v>1143157</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>243</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,10 +4232,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>926</v>
+        <v>3208</v>
       </c>
       <c r="D18" s="7">
-        <v>930425</v>
+        <v>3367992</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4772,10 +4247,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>950</v>
+        <v>3305</v>
       </c>
       <c r="I18" s="7">
-        <v>1033638</v>
+        <v>3508764</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4787,10 +4262,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1876</v>
+        <v>6513</v>
       </c>
       <c r="N18" s="7">
-        <v>1964063</v>
+        <v>6876756</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4803,171 +4278,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2626</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2758599</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2788</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2975000</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5414</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5733599</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>582</v>
-      </c>
-      <c r="D20" s="7">
-        <v>609393</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="H20" s="7">
-        <v>517</v>
-      </c>
-      <c r="I20" s="7">
-        <v>533764</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1099</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1143157</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3208</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3367992</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3305</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3508764</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6513</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6876756</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4980,8 +4299,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27F26C8-FB20-403A-AC99-DE21D655C59F}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606E3838-B344-4874-A622-A5E3AD066BE8}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4997,7 +4316,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>338</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5098,49 +4417,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>80</v>
+        <v>462</v>
       </c>
       <c r="D4" s="7">
-        <v>63011</v>
+        <v>366661</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>339</v>
+        <v>288</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>340</v>
+        <v>289</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>341</v>
+        <v>290</v>
       </c>
       <c r="H4" s="7">
-        <v>155</v>
+        <v>806</v>
       </c>
       <c r="I4" s="7">
-        <v>76285</v>
+        <v>410341</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>342</v>
+        <v>291</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>343</v>
+        <v>292</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>344</v>
+        <v>293</v>
       </c>
       <c r="M4" s="7">
-        <v>235</v>
+        <v>1268</v>
       </c>
       <c r="N4" s="7">
-        <v>139296</v>
+        <v>777003</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>345</v>
+        <v>294</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>346</v>
+        <v>295</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>347</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,49 +4468,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>37</v>
+        <v>258</v>
       </c>
       <c r="D5" s="7">
-        <v>36968</v>
+        <v>259481</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>348</v>
+        <v>297</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>349</v>
+        <v>298</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>350</v>
+        <v>299</v>
       </c>
       <c r="H5" s="7">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="I5" s="7">
-        <v>48486</v>
+        <v>247023</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>351</v>
+        <v>300</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>352</v>
+        <v>301</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>353</v>
+        <v>302</v>
       </c>
       <c r="M5" s="7">
-        <v>115</v>
+        <v>657</v>
       </c>
       <c r="N5" s="7">
-        <v>85454</v>
+        <v>506503</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>354</v>
+        <v>303</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>355</v>
+        <v>304</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>356</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5200,10 +4519,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>117</v>
+        <v>720</v>
       </c>
       <c r="D6" s="7">
-        <v>99979</v>
+        <v>626142</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5215,10 +4534,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>233</v>
+        <v>1205</v>
       </c>
       <c r="I6" s="7">
-        <v>124771</v>
+        <v>657364</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5230,10 +4549,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>350</v>
+        <v>1925</v>
       </c>
       <c r="N6" s="7">
-        <v>224750</v>
+        <v>1283506</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5253,49 +4572,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>382</v>
+        <v>645</v>
       </c>
       <c r="D7" s="7">
-        <v>322644</v>
+        <v>606276</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>357</v>
+        <v>306</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>358</v>
+        <v>307</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>359</v>
+        <v>308</v>
       </c>
       <c r="H7" s="7">
-        <v>651</v>
+        <v>1064</v>
       </c>
       <c r="I7" s="7">
-        <v>367828</v>
+        <v>639036</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>360</v>
+        <v>309</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>361</v>
+        <v>310</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>362</v>
+        <v>311</v>
       </c>
       <c r="M7" s="7">
-        <v>1033</v>
+        <v>1709</v>
       </c>
       <c r="N7" s="7">
-        <v>690471</v>
+        <v>1245312</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>363</v>
+        <v>312</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>364</v>
+        <v>313</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>365</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,49 +4623,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>221</v>
+        <v>303</v>
       </c>
       <c r="D8" s="7">
-        <v>219433</v>
+        <v>573099</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>366</v>
+        <v>315</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>367</v>
+        <v>316</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>368</v>
+        <v>317</v>
       </c>
       <c r="H8" s="7">
+        <v>425</v>
+      </c>
+      <c r="I8" s="7">
+        <v>303069</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="M8" s="7">
+        <v>728</v>
+      </c>
+      <c r="N8" s="7">
+        <v>876168</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="I8" s="7">
-        <v>211470</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="M8" s="7">
-        <v>542</v>
-      </c>
-      <c r="N8" s="7">
-        <v>430903</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>372</v>
-      </c>
       <c r="P8" s="7" t="s">
-        <v>373</v>
+        <v>322</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>374</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,10 +4674,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>603</v>
+        <v>948</v>
       </c>
       <c r="D9" s="7">
-        <v>542077</v>
+        <v>1179375</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5370,10 +4689,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>972</v>
+        <v>1489</v>
       </c>
       <c r="I9" s="7">
-        <v>579298</v>
+        <v>942105</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5385,10 +4704,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1575</v>
+        <v>2437</v>
       </c>
       <c r="N9" s="7">
-        <v>1121374</v>
+        <v>2121480</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5408,49 +4727,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>645</v>
+        <v>459</v>
       </c>
       <c r="D10" s="7">
-        <v>641974</v>
+        <v>462449</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>375</v>
+        <v>324</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>376</v>
+        <v>325</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="H10" s="7">
-        <v>1064</v>
+        <v>687</v>
       </c>
       <c r="I10" s="7">
-        <v>715867</v>
+        <v>450379</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>378</v>
+        <v>327</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>379</v>
+        <v>306</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>380</v>
+        <v>328</v>
       </c>
       <c r="M10" s="7">
-        <v>1709</v>
+        <v>1146</v>
       </c>
       <c r="N10" s="7">
-        <v>1357840</v>
+        <v>912828</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>381</v>
+        <v>329</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>382</v>
+        <v>330</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>383</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,49 +4778,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>303</v>
+        <v>208</v>
       </c>
       <c r="D11" s="7">
-        <v>383454</v>
+        <v>234925</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>384</v>
+        <v>332</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>385</v>
+        <v>333</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>386</v>
+        <v>334</v>
       </c>
       <c r="H11" s="7">
-        <v>425</v>
+        <v>345</v>
       </c>
       <c r="I11" s="7">
-        <v>326659</v>
+        <v>270222</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>387</v>
+        <v>335</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>388</v>
+        <v>336</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>389</v>
+        <v>315</v>
       </c>
       <c r="M11" s="7">
-        <v>728</v>
+        <v>553</v>
       </c>
       <c r="N11" s="7">
-        <v>710113</v>
+        <v>505146</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>390</v>
+        <v>337</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>391</v>
+        <v>338</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>392</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,10 +4829,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>948</v>
+        <v>667</v>
       </c>
       <c r="D12" s="7">
-        <v>1025428</v>
+        <v>697374</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5525,10 +4844,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1489</v>
+        <v>1032</v>
       </c>
       <c r="I12" s="7">
-        <v>1042526</v>
+        <v>720601</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5540,10 +4859,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2437</v>
+        <v>1699</v>
       </c>
       <c r="N12" s="7">
-        <v>2067953</v>
+        <v>1417974</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5563,49 +4882,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>459</v>
+        <v>654</v>
       </c>
       <c r="D13" s="7">
-        <v>482626</v>
+        <v>561085</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>393</v>
+        <v>340</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>394</v>
+        <v>341</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="H13" s="7">
-        <v>687</v>
+        <v>988</v>
       </c>
       <c r="I13" s="7">
-        <v>489844</v>
+        <v>620308</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>396</v>
+        <v>343</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>397</v>
+        <v>344</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>398</v>
+        <v>345</v>
       </c>
       <c r="M13" s="7">
-        <v>1146</v>
+        <v>1642</v>
       </c>
       <c r="N13" s="7">
-        <v>972470</v>
+        <v>1181393</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>399</v>
+        <v>346</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>400</v>
+        <v>347</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>401</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,49 +4933,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>208</v>
+        <v>331</v>
       </c>
       <c r="D14" s="7">
-        <v>238424</v>
+        <v>347043</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>402</v>
+        <v>349</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>403</v>
+        <v>350</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>404</v>
+        <v>351</v>
       </c>
       <c r="H14" s="7">
-        <v>345</v>
+        <v>540</v>
       </c>
       <c r="I14" s="7">
-        <v>265421</v>
+        <v>449580</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>405</v>
+        <v>352</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>406</v>
+        <v>353</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>407</v>
+        <v>354</v>
       </c>
       <c r="M14" s="7">
-        <v>553</v>
+        <v>871</v>
       </c>
       <c r="N14" s="7">
-        <v>503845</v>
+        <v>796623</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>408</v>
+        <v>355</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>409</v>
+        <v>356</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>410</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5665,10 +4984,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>667</v>
+        <v>985</v>
       </c>
       <c r="D15" s="7">
-        <v>721050</v>
+        <v>908128</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5680,10 +4999,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1032</v>
+        <v>1528</v>
       </c>
       <c r="I15" s="7">
-        <v>755265</v>
+        <v>1069888</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5695,10 +5014,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1699</v>
+        <v>2513</v>
       </c>
       <c r="N15" s="7">
-        <v>1476315</v>
+        <v>1978016</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5712,55 +5031,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>654</v>
+        <v>2220</v>
       </c>
       <c r="D16" s="7">
-        <v>600226</v>
+        <v>1996471</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>411</v>
+        <v>358</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>412</v>
+        <v>359</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>413</v>
+        <v>360</v>
       </c>
       <c r="H16" s="7">
-        <v>988</v>
+        <v>3545</v>
       </c>
       <c r="I16" s="7">
-        <v>697743</v>
+        <v>2120065</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>414</v>
+        <v>361</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>415</v>
+        <v>362</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>416</v>
+        <v>363</v>
       </c>
       <c r="M16" s="7">
-        <v>1642</v>
+        <v>5765</v>
       </c>
       <c r="N16" s="7">
-        <v>1297969</v>
+        <v>4116536</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>417</v>
+        <v>364</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>418</v>
+        <v>365</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>419</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,49 +5088,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>331</v>
+        <v>1100</v>
       </c>
       <c r="D17" s="7">
-        <v>345801</v>
+        <v>1414547</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>420</v>
+        <v>367</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>421</v>
+        <v>368</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>422</v>
+        <v>369</v>
       </c>
       <c r="H17" s="7">
-        <v>540</v>
+        <v>1709</v>
       </c>
       <c r="I17" s="7">
-        <v>425616</v>
+        <v>1269893</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>423</v>
+        <v>370</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>424</v>
+        <v>371</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>425</v>
+        <v>372</v>
       </c>
       <c r="M17" s="7">
-        <v>871</v>
+        <v>2809</v>
       </c>
       <c r="N17" s="7">
-        <v>771417</v>
+        <v>2684441</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>426</v>
+        <v>373</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>427</v>
+        <v>374</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>428</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5820,10 +5139,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>985</v>
+        <v>3320</v>
       </c>
       <c r="D18" s="7">
-        <v>946027</v>
+        <v>3411018</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5835,10 +5154,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1528</v>
+        <v>5254</v>
       </c>
       <c r="I18" s="7">
-        <v>1123359</v>
+        <v>3389958</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5850,10 +5169,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2513</v>
+        <v>8574</v>
       </c>
       <c r="N18" s="7">
-        <v>2069386</v>
+        <v>6800977</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5866,171 +5185,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2220</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2110480</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3545</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2347567</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5765</v>
-      </c>
-      <c r="N19" s="7">
-        <v>4458047</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1100</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1224080</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1709</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1277651</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2809</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2501731</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3320</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3334560</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5254</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3625218</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8574</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6959778</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
